--- a/Spatial/PDFs/plot_Vars_wrt_centers_AD_Data_all_zMIs.xlsx
+++ b/Spatial/PDFs/plot_Vars_wrt_centers_AD_Data_all_zMIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A546F786-1AA7-4F22-BDCC-E3E833FECE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A5A4A4D-FF65-4945-BEAB-6CA290E973B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{EA53A038-014D-4568-A3A2-2C71096650A0}"/>
   </bookViews>
@@ -35,9 +35,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>C3B1</t>
+  </si>
+  <si>
+    <t>C3B2</t>
+  </si>
+  <si>
+    <t>C3B3</t>
+  </si>
+  <si>
+    <t>C4B1</t>
+  </si>
+  <si>
+    <t>C4B2</t>
+  </si>
+  <si>
+    <t>C4B3</t>
+  </si>
+  <si>
+    <t>C4B4</t>
   </si>
   <si>
     <t>C1</t>
@@ -401,34 +422,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462F4041-FA40-4D39-A249-BC8634E3C684}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -444,8 +501,41 @@
       <c r="E2">
         <v>5.4245291361543755</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>4.9556715283486863</v>
+      </c>
+      <c r="G2">
+        <v>3.2389610447935731</v>
+      </c>
+      <c r="H2">
+        <v>5.5106060494639673</v>
+      </c>
+      <c r="I2">
+        <v>3.5308370433433636</v>
+      </c>
+      <c r="J2">
+        <v>3.2820098377087361</v>
+      </c>
+      <c r="K2">
+        <v>5.7254402774318391</v>
+      </c>
+      <c r="L2">
+        <v>3.3622637697852431</v>
+      </c>
+      <c r="M2">
+        <v>3.5308370433433636</v>
+      </c>
+      <c r="N2">
+        <v>5.7254402774318391</v>
+      </c>
+      <c r="O2">
+        <v>3.3622637697852431</v>
+      </c>
+      <c r="Q2">
+        <v>3.5308370433433636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -461,8 +551,20 @@
       <c r="E3">
         <v>3.324096050000843</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>5.2713306776561586</v>
+      </c>
+      <c r="H3">
+        <v>3.324096050000843</v>
+      </c>
+      <c r="K3">
+        <v>3.324096050000843</v>
+      </c>
+      <c r="N3">
+        <v>3.324096050000843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -478,8 +580,41 @@
       <c r="E4">
         <v>6.369821520762768</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>4.8105247449790332</v>
+      </c>
+      <c r="G4">
+        <v>3.7835719926477807</v>
+      </c>
+      <c r="H4">
+        <v>6.6437928619936706</v>
+      </c>
+      <c r="I4">
+        <v>3.0821654259919229</v>
+      </c>
+      <c r="J4">
+        <v>3.7835719926477807</v>
+      </c>
+      <c r="K4">
+        <v>6.7259712365556856</v>
+      </c>
+      <c r="L4">
+        <v>5.739830741811506</v>
+      </c>
+      <c r="M4">
+        <v>3.0821654259919229</v>
+      </c>
+      <c r="N4">
+        <v>6.7259712365556856</v>
+      </c>
+      <c r="O4">
+        <v>5.739830741811506</v>
+      </c>
+      <c r="P4">
+        <v>3.0821654259919229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -495,8 +630,44 @@
       <c r="E5">
         <v>10.706453571128314</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>10.929228257603643</v>
+      </c>
+      <c r="G5">
+        <v>6.1352414028950344</v>
+      </c>
+      <c r="H5">
+        <v>11.759456054394732</v>
+      </c>
+      <c r="I5">
+        <v>7.020944879695846</v>
+      </c>
+      <c r="J5">
+        <v>4.1580898197212051</v>
+      </c>
+      <c r="K5">
+        <v>12.002411368186113</v>
+      </c>
+      <c r="L5">
+        <v>7.2968633639578888</v>
+      </c>
+      <c r="M5">
+        <v>5.7077200772104204</v>
+      </c>
+      <c r="N5">
+        <v>12.894775921498475</v>
+      </c>
+      <c r="O5">
+        <v>7.3317085726901237</v>
+      </c>
+      <c r="P5">
+        <v>7.0007944552530583</v>
+      </c>
+      <c r="Q5">
+        <v>7.1418474263525749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -512,8 +683,44 @@
       <c r="E6">
         <v>11.938125036217013</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>12.225337741559295</v>
+      </c>
+      <c r="G6">
+        <v>6.5351810450714369</v>
+      </c>
+      <c r="H6">
+        <v>12.579639865537972</v>
+      </c>
+      <c r="I6">
+        <v>5.202219328346926</v>
+      </c>
+      <c r="J6">
+        <v>4.6436711889942552</v>
+      </c>
+      <c r="K6">
+        <v>12.875633565813112</v>
+      </c>
+      <c r="L6">
+        <v>6.6597658600351988</v>
+      </c>
+      <c r="M6">
+        <v>5.202219328346926</v>
+      </c>
+      <c r="N6">
+        <v>16.08676469866877</v>
+      </c>
+      <c r="O6">
+        <v>6.8805620117004223</v>
+      </c>
+      <c r="P6">
+        <v>5.1921849322437126</v>
+      </c>
+      <c r="Q6">
+        <v>5.2122537244501403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -529,8 +736,26 @@
       <c r="E7">
         <v>8.7075866919929741</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>6.5184115831398675</v>
+      </c>
+      <c r="G7">
+        <v>4.605389528811509</v>
+      </c>
+      <c r="H7">
+        <v>8.7075866919929741</v>
+      </c>
+      <c r="J7">
+        <v>4.605389528811509</v>
+      </c>
+      <c r="K7">
+        <v>8.7075866919929741</v>
+      </c>
+      <c r="N7">
+        <v>8.7075866919929741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -546,8 +771,26 @@
       <c r="E8">
         <v>5.3241820912376561</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>6.6572184427460508</v>
+      </c>
+      <c r="G8">
+        <v>3.2794604436237829</v>
+      </c>
+      <c r="H8">
+        <v>5.3241820912376561</v>
+      </c>
+      <c r="J8">
+        <v>3.2794604436237829</v>
+      </c>
+      <c r="K8">
+        <v>5.3241820912376561</v>
+      </c>
+      <c r="N8">
+        <v>5.3241820912376561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -563,8 +806,38 @@
       <c r="E9">
         <v>4.0668642565912823</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>4.5417828672886014</v>
+      </c>
+      <c r="G9">
+        <v>3.5530913726929398</v>
+      </c>
+      <c r="H9">
+        <v>4.1290028151517273</v>
+      </c>
+      <c r="I9">
+        <v>3.0105087610637287</v>
+      </c>
+      <c r="J9">
+        <v>3.4387895973448992</v>
+      </c>
+      <c r="K9">
+        <v>4.1290028151517273</v>
+      </c>
+      <c r="M9">
+        <v>3.0105087610637287</v>
+      </c>
+      <c r="N9">
+        <v>4.1378918226200412</v>
+      </c>
+      <c r="O9">
+        <v>4.0875207802995961</v>
+      </c>
+      <c r="Q9">
+        <v>3.0105087610637287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -580,8 +853,44 @@
       <c r="E10">
         <v>5.2251767323195955</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>8.9241707437345017</v>
+      </c>
+      <c r="G10">
+        <v>4.4668368545358339</v>
+      </c>
+      <c r="H10">
+        <v>5.419975679763704</v>
+      </c>
+      <c r="I10">
+        <v>4.1120398897818333</v>
+      </c>
+      <c r="J10">
+        <v>4.786393454732579</v>
+      </c>
+      <c r="K10">
+        <v>5.525887761721842</v>
+      </c>
+      <c r="L10">
+        <v>3.8535725134160215</v>
+      </c>
+      <c r="M10">
+        <v>4.2851948636081199</v>
+      </c>
+      <c r="N10">
+        <v>5.617720368933762</v>
+      </c>
+      <c r="O10">
+        <v>4.2994224411333697</v>
+      </c>
+      <c r="P10">
+        <v>3.67230242629127</v>
+      </c>
+      <c r="Q10">
+        <v>4.6983565077692502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -596,6 +905,42 @@
       </c>
       <c r="E11">
         <v>7.9019529524134651</v>
+      </c>
+      <c r="F11">
+        <v>9.2216724982424267</v>
+      </c>
+      <c r="G11">
+        <v>5.3050053627379956</v>
+      </c>
+      <c r="H11">
+        <v>8.7857994732382583</v>
+      </c>
+      <c r="I11">
+        <v>4.3665668691142923</v>
+      </c>
+      <c r="J11">
+        <v>3.4319342327481821</v>
+      </c>
+      <c r="K11">
+        <v>8.9104737143307187</v>
+      </c>
+      <c r="L11">
+        <v>6.8771655347921765</v>
+      </c>
+      <c r="M11">
+        <v>4.220310147754236</v>
+      </c>
+      <c r="N11">
+        <v>8.8754463494072429</v>
+      </c>
+      <c r="O11">
+        <v>8.3973296765059935</v>
+      </c>
+      <c r="P11">
+        <v>4.8053370331944603</v>
+      </c>
+      <c r="Q11">
+        <v>4.220310147754236</v>
       </c>
     </row>
   </sheetData>
